--- a/Testcases_supplier/Customers/Manual testcases/Customer-Default settings.xlsx
+++ b/Testcases_supplier/Customers/Manual testcases/Customer-Default settings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Testcases_supplier\Customers\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08BC22D-38D0-4693-8379-1F81205A683F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABBEBB3-E7E4-41ED-B9A2-E7937283084D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>SL. No</t>
   </si>
@@ -218,6 +218,9 @@
       </rPr>
       <t>(need to allow longers number upto 20 charaters)</t>
     </r>
+  </si>
+  <si>
+    <t>It gets displayed as expected</t>
   </si>
 </sst>
 </file>
@@ -318,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -339,19 +342,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,7 +768,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -783,7 +783,7 @@
       <c r="E6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="6" t="s">
         <v>28</v>
       </c>
       <c r="G6" t="s">
@@ -791,7 +791,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -800,7 +800,7 @@
       <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -814,7 +814,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -823,11 +823,17 @@
       <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="9" t="s">
         <v>33</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
